--- a/proc/done/작업진행현황 201117-01.xlsx
+++ b/proc/done/작업진행현황 201117-01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="Excel 양식" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
     <t>소재 두께</t>
   </si>
@@ -591,6 +591,22 @@
   </si>
   <si>
     <t>200918081601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1075,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1141,15 +1157,21 @@
       <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>78</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="K2" s="1">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
       <c r="M2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1179,15 +1201,21 @@
       <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="K3" s="1">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
       <c r="M3" s="1" t="s">
         <v>39</v>
       </c>
@@ -1217,15 +1245,21 @@
       <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="K4" s="1">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
       <c r="M4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1251,15 +1285,21 @@
       <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="K5" s="1">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="17" t="s">
         <v>89</v>
@@ -1287,15 +1327,21 @@
       <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="K6" s="1">
+        <v>11</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="17" t="s">
         <v>90</v>
@@ -1323,13 +1369,19 @@
       <c r="G7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="K7" s="1">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
       <c r="M7" s="1" t="s">
         <v>41</v>
       </c>

--- a/proc/done/작업진행현황 201117-01.xlsx
+++ b/proc/done/작업진행현황 201117-01.xlsx
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
